--- a/biology/Botanique/Parc_des_Promenades_(Saint-Brieuc)/Parc_des_Promenades_(Saint-Brieuc).xlsx
+++ b/biology/Botanique/Parc_des_Promenades_(Saint-Brieuc)/Parc_des_Promenades_(Saint-Brieuc).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc des Promenades est un parc public situé à Saint-Brieuc.
@@ -512,7 +524,9 @@
           <t>Situation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc d'environ 2,5 ha est situé dans la partie Est du centre ville, s'étire sur une portion de la bordure ouest de la vallée de Gouédic, que l'on peut franchir en empruntant le pont d'Armor au Sud-Est du parc. L'église Saint-Michel se trouve à environ 150 m au nord du parc.
 </t>
@@ -543,12 +557,14 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc a été aménagé peu avant la Révolution sous le mandat du maire Jean-Louis Bagot. Il est par la suite redessiné par le paysagiste parisien Jean-Pierre Barillet-Deschamps qui y ajoutera diverses essences d'arbres. Le palais de justice y est implanté en 1859[1]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc a été aménagé peu avant la Révolution sous le mandat du maire Jean-Louis Bagot. Il est par la suite redessiné par le paysagiste parisien Jean-Pierre Barillet-Deschamps qui y ajoutera diverses essences d'arbres. Le palais de justice y est implanté en 1859. 
 Après la Première Guerre mondiale, le parc accueille le monument aux morts, réalisé en 1923 par Francis Renaud. 
-En 2009, la partie nord du parc, dite « esplanade du théâtre de verdure » est renommée « esplanade Patrick Dewaere » du nom de l'acteur né à Saint-Brieuc[2]. En bordure ouest de cette esplanade a été ajoutée une aire de jeux pour enfants. 
-En 2019, un skatepark est inauguré dans la partie nord-est du parc[3].
+En 2009, la partie nord du parc, dite « esplanade du théâtre de verdure » est renommée « esplanade Patrick Dewaere » du nom de l'acteur né à Saint-Brieuc. En bordure ouest de cette esplanade a été ajoutée une aire de jeux pour enfants. 
+En 2019, un skatepark est inauguré dans la partie nord-est du parc.
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Œuvres d'art</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc contient par ailleurs quelques œuvres d'art : 
 Le fronton du palais de justice, du sculpteur Pierre Marie Ogé,
